--- a/data/trans_orig/P04C05_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P04C05_2023-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>104864</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>84904</v>
+        <v>86163</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>126052</v>
+        <v>124480</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1904484533044913</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.154198108785953</v>
+        <v>0.1564847877899055</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2289285045296963</v>
+        <v>0.2260726608407057</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>152</v>
@@ -762,19 +762,19 @@
         <v>109526</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>95253</v>
+        <v>93736</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>128057</v>
+        <v>127861</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2249089750182674</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1955989209051625</v>
+        <v>0.1924852843263763</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2629623872302835</v>
+        <v>0.2625592975468204</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>248</v>
@@ -783,19 +783,19 @@
         <v>214390</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>190311</v>
+        <v>192078</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>241648</v>
+        <v>243079</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2066219303493144</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1834154439515782</v>
+        <v>0.1851182832056449</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2328918152159022</v>
+        <v>0.2342711802630929</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>4401</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1075</v>
+        <v>1079</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>13072</v>
+        <v>12663</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.007992519396181921</v>
+        <v>0.007992519396181922</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.001952169582074432</v>
+        <v>0.001959650679212623</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02373986691864962</v>
+        <v>0.02299799137259222</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>9</v>
@@ -833,19 +833,19 @@
         <v>7461</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3282</v>
+        <v>3279</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>16301</v>
+        <v>15486</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01532057917631953</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.006739473974292108</v>
+        <v>0.006732918012689703</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.03347344880633724</v>
+        <v>0.03179917329701751</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>12</v>
@@ -854,19 +854,19 @@
         <v>11862</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>5534</v>
+        <v>5948</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>21782</v>
+        <v>22911</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01143182329359701</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.005333460098915425</v>
+        <v>0.005732145349419566</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02099236640831736</v>
+        <v>0.02208128963914873</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>441353</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>419135</v>
+        <v>421286</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>459874</v>
+        <v>460242</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.8015590272993268</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.7612079549499191</v>
+        <v>0.76511450532631</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8351962545780087</v>
+        <v>0.8358639764201551</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>523</v>
@@ -904,19 +904,19 @@
         <v>369992</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>351168</v>
+        <v>352168</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>386393</v>
+        <v>387216</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.7597704458054132</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.7211156334901521</v>
+        <v>0.7231679125059446</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.793449617907701</v>
+        <v>0.7951395744729101</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>978</v>
@@ -925,19 +925,19 @@
         <v>811345</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>783031</v>
+        <v>782612</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>835471</v>
+        <v>837099</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.7819462463570888</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.7546579632295491</v>
+        <v>0.7542547564744337</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8051979337218536</v>
+        <v>0.8067673691228618</v>
       </c>
     </row>
     <row r="7">
@@ -1029,19 +1029,19 @@
         <v>84231</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>68760</v>
+        <v>67971</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>105264</v>
+        <v>106128</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1743152063790804</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1422978962023666</v>
+        <v>0.1406646632904147</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2178424340576599</v>
+        <v>0.2196307948311304</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>132</v>
@@ -1050,19 +1050,19 @@
         <v>98594</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>84309</v>
+        <v>84286</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>114876</v>
+        <v>113728</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2330030524541649</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1992457199570622</v>
+        <v>0.1991899993158449</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2714815734811584</v>
+        <v>0.2687707778816605</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>212</v>
@@ -1071,19 +1071,19 @@
         <v>182825</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>161748</v>
+        <v>160074</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>207453</v>
+        <v>209513</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.201714341002846</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1784599390006952</v>
+        <v>0.1766133972499321</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2288870113878872</v>
+        <v>0.2311598302693183</v>
       </c>
     </row>
     <row r="9">
@@ -1100,19 +1100,19 @@
         <v>8010</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3255</v>
+        <v>3488</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>17508</v>
+        <v>17638</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01657600495645735</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.006736056806923787</v>
+        <v>0.007218845764062009</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.03623284951847027</v>
+        <v>0.03650212035246962</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>4</v>
@@ -1121,19 +1121,19 @@
         <v>3155</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>784</v>
+        <v>760</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>7522</v>
+        <v>7674</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.007457057821377721</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.001851629565083788</v>
+        <v>0.001796655624566794</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.01777618620601156</v>
+        <v>0.01813591070645308</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>11</v>
@@ -1142,19 +1142,19 @@
         <v>11165</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>5553</v>
+        <v>5554</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>20545</v>
+        <v>22053</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01231871359392563</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.006126437028586371</v>
+        <v>0.006128003697155718</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.02266777470135763</v>
+        <v>0.02433148236262613</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>390971</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>370018</v>
+        <v>368942</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>407478</v>
+        <v>407604</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.8091087886644623</v>
+        <v>0.8091087886644622</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7657467861584244</v>
+        <v>0.7635196047453726</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8432699928364</v>
+        <v>0.8435303729695516</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>454</v>
@@ -1192,19 +1192,19 @@
         <v>321394</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>305024</v>
+        <v>306108</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>336004</v>
+        <v>335869</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7595398897244573</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7208528313277912</v>
+        <v>0.7234150724774439</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7940676338198384</v>
+        <v>0.7937473063240574</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>848</v>
@@ -1213,19 +1213,19 @@
         <v>712365</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>687091</v>
+        <v>684784</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>734215</v>
+        <v>735951</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7859669454032284</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.758081066040647</v>
+        <v>0.7555363418889773</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8100742786612574</v>
+        <v>0.8119895611722756</v>
       </c>
     </row>
     <row r="11">
@@ -1317,19 +1317,19 @@
         <v>106453</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>88728</v>
+        <v>88587</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>127040</v>
+        <v>126563</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2261747296539738</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1885137039466951</v>
+        <v>0.1882153985953653</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2699137839753714</v>
+        <v>0.2689009805574148</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>66</v>
@@ -1338,19 +1338,19 @@
         <v>41251</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>32417</v>
+        <v>32481</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>50691</v>
+        <v>50958</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.220833458173965</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1735376530859062</v>
+        <v>0.1738841271754886</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2713668238134985</v>
+        <v>0.2727971300995538</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>169</v>
@@ -1359,19 +1359,19 @@
         <v>147705</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>125183</v>
+        <v>126712</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>171620</v>
+        <v>169543</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2246571759864301</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1904023991198825</v>
+        <v>0.1927269796474656</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2610315701170345</v>
+        <v>0.2578723969317689</v>
       </c>
     </row>
     <row r="13">
@@ -1388,19 +1388,19 @@
         <v>7425</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3417</v>
+        <v>3795</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>14502</v>
+        <v>14072</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.01577600506628239</v>
+        <v>0.0157760050662824</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.007260018513705593</v>
+        <v>0.008063077741491804</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03081130041823954</v>
+        <v>0.02989886491560991</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -1412,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>4418</v>
+        <v>4209</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.006850709028054314</v>
@@ -1421,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02365141396115664</v>
+        <v>0.02253257171502203</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>11</v>
@@ -1430,19 +1430,19 @@
         <v>8705</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4476</v>
+        <v>4188</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>15647</v>
+        <v>15061</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01324016396788088</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.00680763151205094</v>
+        <v>0.006369666220412159</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02379905509439308</v>
+        <v>0.02290772853335159</v>
       </c>
     </row>
     <row r="14">
@@ -1459,19 +1459,19 @@
         <v>356790</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>336504</v>
+        <v>336999</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>375271</v>
+        <v>375669</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7580492652797438</v>
+        <v>0.7580492652797439</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7149476869196147</v>
+        <v>0.7159992915942096</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7973140989442175</v>
+        <v>0.7981601566771639</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>220</v>
@@ -1480,19 +1480,19 @@
         <v>144268</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>134230</v>
+        <v>134819</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>152957</v>
+        <v>153425</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7723158327979808</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7185796628707845</v>
+        <v>0.7217331750432509</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8188335331094863</v>
+        <v>0.8213383541583879</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>595</v>
@@ -1501,19 +1501,19 @@
         <v>501058</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>477200</v>
+        <v>478234</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>523872</v>
+        <v>522372</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7621026600456891</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7258152420003363</v>
+        <v>0.7273879278125258</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7968015507750995</v>
+        <v>0.7945205385071304</v>
       </c>
     </row>
     <row r="15">
@@ -1605,19 +1605,19 @@
         <v>298343</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>262904</v>
+        <v>269573</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>331685</v>
+        <v>332395</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2638432314059477</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2325024417238906</v>
+        <v>0.2384008377190372</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2933296727868785</v>
+        <v>0.2939577276010639</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>351</v>
@@ -1626,19 +1626,19 @@
         <v>253582</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>229134</v>
+        <v>230116</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>278412</v>
+        <v>276984</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2955346803247328</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2670417529086876</v>
+        <v>0.2681857608862774</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3244724110311802</v>
+        <v>0.3228078790451795</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>634</v>
@@ -1647,19 +1647,19 @@
         <v>551925</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>510411</v>
+        <v>513403</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>594130</v>
+        <v>593646</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2775161434315925</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2566422521204239</v>
+        <v>0.2581466397053886</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2987372731476776</v>
+        <v>0.2984939945247575</v>
       </c>
     </row>
     <row r="17">
@@ -1676,19 +1676,19 @@
         <v>14915</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8140</v>
+        <v>8740</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>24906</v>
+        <v>25630</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01319050222115864</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.007198291479107216</v>
+        <v>0.007729484733284503</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02202602629671592</v>
+        <v>0.02266611883867573</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>15</v>
@@ -1697,19 +1697,19 @@
         <v>10152</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>5634</v>
+        <v>6011</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>17823</v>
+        <v>19719</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.0118315489078827</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.006566602682363772</v>
+        <v>0.007005942149824208</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.02077154749808496</v>
+        <v>0.02298080607392634</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>29</v>
@@ -1718,19 +1718,19 @@
         <v>25067</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>16983</v>
+        <v>15790</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>37463</v>
+        <v>36738</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01260419740603337</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.008539251184174536</v>
+        <v>0.00793939142846533</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01883688029498243</v>
+        <v>0.01847256020062383</v>
       </c>
     </row>
     <row r="18">
@@ -1747,19 +1747,19 @@
         <v>817499</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>783644</v>
+        <v>784189</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>852731</v>
+        <v>847569</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.7229662663728936</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.6930260952813987</v>
+        <v>0.693507985674363</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.7541235676871934</v>
+        <v>0.7495591902145274</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>861</v>
@@ -1768,19 +1768,19 @@
         <v>594312</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>568487</v>
+        <v>569866</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>618217</v>
+        <v>618052</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.6926337707673844</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.6625365007876113</v>
+        <v>0.6641438583232964</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.7204938277162265</v>
+        <v>0.7203015088852606</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1681</v>
@@ -1789,19 +1789,19 @@
         <v>1411812</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1369905</v>
+        <v>1370541</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1453865</v>
+        <v>1450797</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.7098796591623741</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.6888085110624069</v>
+        <v>0.6891280533510059</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.7310247161147788</v>
+        <v>0.7294823467673227</v>
       </c>
     </row>
     <row r="19">
@@ -1893,19 +1893,19 @@
         <v>227632</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>199872</v>
+        <v>198603</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>253831</v>
+        <v>252905</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4007852686633119</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3519093586464607</v>
+        <v>0.3496752352345206</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4469133658644593</v>
+        <v>0.4452842500141602</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>371</v>
@@ -1914,19 +1914,19 @@
         <v>240803</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>218314</v>
+        <v>218542</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>265442</v>
+        <v>263740</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.290315660173029</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.263202596170464</v>
+        <v>0.2634773410795423</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3200209705539741</v>
+        <v>0.3179684147577293</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>575</v>
@@ -1935,19 +1935,19 @@
         <v>468434</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>434921</v>
+        <v>432731</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>502730</v>
+        <v>503403</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3352147473382456</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3112325505684441</v>
+        <v>0.3096653724879987</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3597568172281317</v>
+        <v>0.3602383916358458</v>
       </c>
     </row>
     <row r="21">
@@ -1964,19 +1964,19 @@
         <v>11025</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>5924</v>
+        <v>6060</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>19816</v>
+        <v>19345</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01941219789736728</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01042971500703486</v>
+        <v>0.01066924813015956</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.03488913577705659</v>
+        <v>0.03406028448929158</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>20</v>
@@ -1985,19 +1985,19 @@
         <v>11569</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>6634</v>
+        <v>7351</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>18024</v>
+        <v>19194</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01394819432871035</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.007998210297384215</v>
+        <v>0.008862567400571709</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.02172958525159294</v>
+        <v>0.023140500808457</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>31</v>
@@ -2006,19 +2006,19 @@
         <v>22595</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>14905</v>
+        <v>15587</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>31797</v>
+        <v>33206</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.01616897501086296</v>
+        <v>0.01616897501086295</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01066632577635764</v>
+        <v>0.01115417985347134</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.02275411263668678</v>
+        <v>0.02376261894249379</v>
       </c>
     </row>
     <row r="22">
@@ -2035,19 +2035,19 @@
         <v>329307</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>303105</v>
+        <v>301721</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>357437</v>
+        <v>355984</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.5798025334393209</v>
+        <v>0.5798025334393208</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5336695353768262</v>
+        <v>0.5312325512669422</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6293309395534847</v>
+        <v>0.6267721232431205</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>897</v>
@@ -2056,19 +2056,19 @@
         <v>577080</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>553130</v>
+        <v>554463</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>599722</v>
+        <v>599488</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6957361454982607</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6668614273181868</v>
+        <v>0.668467661786164</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7230335689618508</v>
+        <v>0.7227508134801756</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1229</v>
@@ -2077,19 +2077,19 @@
         <v>906387</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>870863</v>
+        <v>871791</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>939867</v>
+        <v>942434</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.6486162776508916</v>
+        <v>0.6486162776508915</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6231952238658564</v>
+        <v>0.6238594697821008</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6725749758063849</v>
+        <v>0.6744119717550436</v>
       </c>
     </row>
     <row r="23">
@@ -2181,19 +2181,19 @@
         <v>52699</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>35707</v>
+        <v>33404</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>78928</v>
+        <v>74143</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2221437313851406</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1505173911215518</v>
+        <v>0.1408103076290787</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.332708374874145</v>
+        <v>0.3125408444876757</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>348</v>
@@ -2202,19 +2202,19 @@
         <v>240802</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>216786</v>
+        <v>217085</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>265589</v>
+        <v>269411</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2852156911110038</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2567701076334589</v>
+        <v>0.2571241065248671</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3145744824402771</v>
+        <v>0.3191008598931291</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>374</v>
@@ -2223,19 +2223,19 @@
         <v>293501</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>262254</v>
+        <v>264620</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>327277</v>
+        <v>327671</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.271380926331977</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2424887177113262</v>
+        <v>0.2446768977093942</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3026111480296743</v>
+        <v>0.3029761224777041</v>
       </c>
     </row>
     <row r="25">
@@ -2255,7 +2255,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>9152</v>
+        <v>12036</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.007680611438948582</v>
@@ -2264,7 +2264,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03857905321021107</v>
+        <v>0.0507380142689443</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>11</v>
@@ -2273,19 +2273,19 @@
         <v>5085</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2517</v>
+        <v>2638</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>8790</v>
+        <v>8773</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.006023374804745434</v>
+        <v>0.006023374804745435</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.002981755469121831</v>
+        <v>0.003124544607694004</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01041177531781639</v>
+        <v>0.01039121700242986</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>12</v>
@@ -2294,19 +2294,19 @@
         <v>6907</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>3712</v>
+        <v>3766</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>14348</v>
+        <v>14404</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.006386887832040589</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.003432153852293733</v>
+        <v>0.003481772669352925</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.013266974497247</v>
+        <v>0.01331873868406218</v>
       </c>
     </row>
     <row r="26">
@@ -2323,19 +2323,19 @@
         <v>182707</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>157953</v>
+        <v>162149</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>200560</v>
+        <v>202432</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7701756571759109</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.665828518231786</v>
+        <v>0.6835135031420649</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8454307289853987</v>
+        <v>0.8533236726712918</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>800</v>
@@ -2344,19 +2344,19 @@
         <v>598393</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>574411</v>
+        <v>570004</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>622901</v>
+        <v>621855</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7087609340842509</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6803546624156229</v>
+        <v>0.6751358393646489</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7377887375465843</v>
+        <v>0.7365493145123596</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>885</v>
@@ -2365,19 +2365,19 @@
         <v>781101</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>745479</v>
+        <v>747870</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>811783</v>
+        <v>810533</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.7222321858359825</v>
+        <v>0.7222321858359826</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6892949205032924</v>
+        <v>0.6915059211595054</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7506024837531931</v>
+        <v>0.7494459991403581</v>
       </c>
     </row>
     <row r="27">
@@ -2469,19 +2469,19 @@
         <v>874222</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>813216</v>
+        <v>817887</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>930838</v>
+        <v>935027</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2541011567304646</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2363691207291335</v>
+        <v>0.2377270182531751</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2705572910849429</v>
+        <v>0.2717749013351302</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1420</v>
@@ -2490,19 +2490,19 @@
         <v>984559</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>937275</v>
+        <v>935345</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1031230</v>
+        <v>1031398</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2713254079103401</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2582947988939462</v>
+        <v>0.2577630269794751</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2841871193780817</v>
+        <v>0.2842334027745679</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2212</v>
@@ -2511,19 +2511,19 @@
         <v>1858780</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1785828</v>
+        <v>1785965</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1938205</v>
+        <v>1941291</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.2629426250797282</v>
+        <v>0.262942625079728</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2526228043195064</v>
+        <v>0.2526421918222771</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2741780326147555</v>
+        <v>0.2746145850824729</v>
       </c>
     </row>
     <row r="29">
@@ -2540,19 +2540,19 @@
         <v>47599</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>34136</v>
+        <v>35753</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>64356</v>
+        <v>66728</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01383498993699423</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.009921899547715279</v>
+        <v>0.01039199672204466</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.01870556322345822</v>
+        <v>0.01939519484138778</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>61</v>
@@ -2561,19 +2561,19 @@
         <v>38703</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>29883</v>
+        <v>29178</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>50318</v>
+        <v>51048</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01066572219940036</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.008235300799899923</v>
+        <v>0.008040856511420091</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.01386658259889732</v>
+        <v>0.0140677068859926</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>106</v>
@@ -2582,19 +2582,19 @@
         <v>86301</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>67990</v>
+        <v>70286</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>106299</v>
+        <v>107622</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01220815692697534</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.009617859164848742</v>
+        <v>0.009942635924498908</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.0150370652705352</v>
+        <v>0.01522419518733886</v>
       </c>
     </row>
     <row r="30">
@@ -2611,19 +2611,19 @@
         <v>2518628</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2460272</v>
+        <v>2457227</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>2578994</v>
+        <v>2572375</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.7320638533325412</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.7151022986421772</v>
+        <v>0.7142172567971965</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.7496098498036158</v>
+        <v>0.7476859410680025</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>3755</v>
@@ -2632,19 +2632,19 @@
         <v>2605440</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>2557316</v>
+        <v>2552797</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>2653050</v>
+        <v>2650289</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.7180088698902596</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.7047468741917235</v>
+        <v>0.7035015122222831</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.7311293883801279</v>
+        <v>0.7303684877017181</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>6216</v>
@@ -2653,19 +2653,19 @@
         <v>5124066</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>5043726</v>
+        <v>5037854</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>5197369</v>
+        <v>5197352</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.7248492179932966</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.7134843108203288</v>
+        <v>0.7126536434985349</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.7352186044080042</v>
+        <v>0.7352161647163387</v>
       </c>
     </row>
     <row r="31">
